--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/OHIO_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/OHIO_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D969"/>
+  <dimension ref="A1:D963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -496,7 +496,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C10">
@@ -636,7 +636,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C20">
@@ -675,7 +675,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C23">
@@ -701,7 +701,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C25">
@@ -766,7 +766,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C30">
@@ -805,7 +805,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C33">
@@ -1026,7 +1026,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C50">
@@ -1143,7 +1143,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C59">
@@ -1421,7 +1421,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C80">
@@ -1717,7 +1717,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C102">
@@ -1743,7 +1743,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1800,7 +1800,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C108">
@@ -1974,7 +1974,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C121">
@@ -2156,7 +2156,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C135">
@@ -2247,12 +2247,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C142">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C145">
@@ -2304,7 +2304,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C146">
@@ -2317,7 +2317,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C147">
@@ -2356,7 +2356,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C150">
@@ -2447,7 +2447,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C157">
@@ -2512,7 +2512,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C162">
@@ -2577,7 +2577,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C167">
@@ -2707,7 +2707,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C177">
@@ -2785,7 +2785,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C183">
@@ -2889,7 +2889,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C191">
@@ -2928,7 +2928,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C194">
@@ -3006,7 +3006,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C200">
@@ -3019,7 +3019,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C201">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C211">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C212">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C213">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C220">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C223">
@@ -3356,7 +3356,7 @@
         <v>47</v>
       </c>
       <c r="D226">
-        <v>0.009652906140891353</v>
+        <v>0.009652906140891352</v>
       </c>
     </row>
     <row r="227">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C230">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C234">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C236">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C238">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C239">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C240">
@@ -3583,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C244">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C250">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C253">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C255">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C257">
@@ -3770,7 +3770,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C258">
@@ -3796,7 +3796,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C260">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C261">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C262">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C263">
@@ -3874,7 +3874,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C266">
@@ -3887,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C267">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C269">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C270">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C273">
@@ -3978,7 +3978,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C274">
@@ -4004,7 +4004,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C276">
@@ -4134,7 +4134,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C286">
@@ -4160,7 +4160,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C288">
@@ -4186,7 +4186,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C290">
@@ -4212,7 +4212,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C292">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C306">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C307">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C311">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C313">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C318">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C322">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C323">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C324">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C326">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C327">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C328">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C331">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C334">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C336">
@@ -4802,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C337">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C342">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C343">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C347">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C350">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C351">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C356">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C359">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C363">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C370">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C371">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C373">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C374">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C377">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C378">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C379">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C383">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C384">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C389">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C447">
@@ -6533,7 +6533,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C469">
@@ -6637,7 +6637,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C477">
@@ -6663,7 +6663,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C479">
@@ -6676,7 +6676,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C480">
@@ -6798,7 +6798,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C489">
@@ -6857,7 +6857,7 @@
         <v>47</v>
       </c>
       <c r="D493">
-        <v>0.009652906140891353</v>
+        <v>0.009652906140891352</v>
       </c>
     </row>
     <row r="494">
@@ -6990,7 +6990,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C503">
@@ -7042,7 +7042,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C507">
@@ -7094,7 +7094,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C511">
@@ -7107,7 +7107,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C512">
@@ -7120,7 +7120,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C513">
@@ -7133,7 +7133,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C514">
@@ -7146,7 +7146,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C515">
@@ -7250,7 +7250,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C523">
@@ -7263,7 +7263,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C524">
@@ -7302,7 +7302,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C527">
@@ -7315,7 +7315,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C528">
@@ -7328,7 +7328,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C529">
@@ -7393,7 +7393,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C534">
@@ -7549,7 +7549,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C546">
@@ -7614,7 +7614,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C551">
@@ -7861,7 +7861,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C570">
@@ -7965,7 +7965,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C578">
@@ -8056,7 +8056,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C585">
@@ -8303,7 +8303,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C604">
@@ -8316,7 +8316,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Santa María la Asunción</t>
+          <t>Santa María La Asunción</t>
         </is>
       </c>
       <c r="C605">
@@ -8446,7 +8446,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C615">
@@ -8602,7 +8602,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C627">
@@ -8719,7 +8719,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C636">
@@ -8732,7 +8732,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C637">
@@ -8745,7 +8745,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C638">
@@ -8758,7 +8758,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C639">
@@ -8771,7 +8771,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C640">
@@ -8784,7 +8784,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C641">
@@ -8797,7 +8797,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C642">
@@ -8823,7 +8823,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C644">
@@ -8862,7 +8862,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C647">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C675">
@@ -9283,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C679">
@@ -9309,7 +9309,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C681">
@@ -9387,7 +9387,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C687">
@@ -9556,7 +9556,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C700">
@@ -9621,7 +9621,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C705">
@@ -9647,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C707">
@@ -9764,7 +9764,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C716">
@@ -9803,7 +9803,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C719">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C728">
@@ -9938,7 +9938,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C729">
@@ -9990,7 +9990,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C733">
@@ -10003,7 +10003,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C734">
@@ -10029,7 +10029,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C736">
@@ -10156,7 +10156,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C745">
@@ -10234,7 +10234,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C751">
@@ -10299,7 +10299,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C756">
@@ -10325,7 +10325,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C758">
@@ -10338,7 +10338,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C759">
@@ -10403,7 +10403,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C764">
@@ -10416,7 +10416,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C765">
@@ -10429,7 +10429,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C766">
@@ -10442,7 +10442,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C767">
@@ -11138,7 +11138,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C819">
@@ -11273,7 +11273,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C829">
@@ -11286,7 +11286,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C830">
@@ -11325,7 +11325,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C833">
@@ -11351,7 +11351,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C835">
@@ -11486,7 +11486,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C845">
@@ -11512,7 +11512,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C847">
@@ -11590,7 +11590,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C853">
@@ -11616,7 +11616,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C855">
@@ -11642,7 +11642,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C857">
@@ -11733,7 +11733,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C864">
@@ -11824,7 +11824,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C871">
@@ -11837,7 +11837,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C872">
@@ -11863,7 +11863,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C874">
@@ -11980,7 +11980,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C883">
@@ -12019,7 +12019,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C886">
@@ -12058,7 +12058,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C889">
@@ -12149,7 +12149,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C896">
@@ -12175,7 +12175,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C898">
@@ -12227,7 +12227,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C902">
@@ -12253,7 +12253,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C904">
@@ -12448,7 +12448,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C919">
@@ -12539,7 +12539,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C926">
@@ -12617,7 +12617,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C932">
@@ -12848,7 +12848,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C949">
@@ -12926,7 +12926,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C955">
@@ -12952,7 +12952,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C957">
@@ -13038,41 +13038,6 @@
       </c>
       <c r="D963">
         <v>1</v>
-      </c>
-    </row>
-    <row r="965">
-      <c r="A965" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="966">
-      <c r="A966" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="967">
-      <c r="A967" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="968">
-      <c r="A968" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="969">
-      <c r="A969" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
